--- a/yearly_ret.xlsx
+++ b/yearly_ret.xlsx
@@ -13384,8 +13384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13463,8 +13463,8 @@
         <v>41278</v>
       </c>
       <c r="B2">
-        <f>([1]Project1_Data_adjClose!B55-[1]Project1_Data_adjClose!B3)/[1]Project1_Data_adjClose!B3+1</f>
-        <v>1.1803653357084101</v>
+        <f>-1 + ([1]Project1_Data_adjClose!B55-[1]Project1_Data_adjClose!B3)/[1]Project1_Data_adjClose!B3+1</f>
+        <v>0.18036533570841007</v>
       </c>
       <c r="C2">
         <f>([1]Project1_Data_adjClose!C55-[1]Project1_Data_adjClose!C3)/[1]Project1_Data_adjClose!C3+1</f>
